--- a/medicine/Enfance/Adrienne_Ségur/Adrienne_Ségur.xlsx
+++ b/medicine/Enfance/Adrienne_Ségur/Adrienne_Ségur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Adrienne_S%C3%A9gur</t>
+          <t>Adrienne_Ségur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adrienne Ségur (23 novembre 1901 - 11 août 1981) est une illustratrice française de livres pour enfants[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adrienne Ségur (23 novembre 1901 - 11 août 1981) est une illustratrice française de livres pour enfants.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Adrienne_S%C3%A9gur</t>
+          <t>Adrienne_Ségur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ségur est née à Athènes, Grèce, dans la famille de l'écrivain français Nicolas Ségur[2]. Vers 1932, elle épouse le poète et penseur égyptien Mounir Hafez [3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ségur est née à Athènes, Grèce, dans la famille de l'écrivain français Nicolas Ségur. Vers 1932, elle épouse le poète et penseur égyptien Mounir Hafez .
 Ségur publie ses premières illustrations sous le nom d'Adrienne Nouvel.
-En 1936, Ségur apparait dans la rubrique enfants du Figaro où elle réalise toutes les illustrations[4]. Elle devient directrice de la page jeunesse du Figaro et y restera jusqu'en 1939[5].
-Les illustrations de Ségur ont été révélées par la maison d'édition Flammarion dans les années 1950 et 1960[3]. Elle illustre le plus souvent des livres de contes pour enfants : Contes d'Andersen, Histoire d'un casse-noisette ou Les contes de Perrault[6].
+En 1936, Ségur apparait dans la rubrique enfants du Figaro où elle réalise toutes les illustrations. Elle devient directrice de la page jeunesse du Figaro et y restera jusqu'en 1939.
+Les illustrations de Ségur ont été révélées par la maison d'édition Flammarion dans les années 1950 et 1960. Elle illustre le plus souvent des livres de contes pour enfants : Contes d'Andersen, Histoire d'un casse-noisette ou Les contes de Perrault.
 Elle cesse de dessiner à partir de 1973.
-Adrienne Ségur est décédée au Plessis-Robinson en 1981[3].
+Adrienne Ségur est décédée au Plessis-Robinson en 1981.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Adrienne_S%C3%A9gur</t>
+          <t>Adrienne_Ségur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En tant qu'illustratrice :
 André Maurois, Le pays des trente-six mille volontés, Hachette, 1931
